--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344712.7702207039</v>
+        <v>-295400.2469500736</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617156</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9022224.212072272</v>
+        <v>9038025.974096827</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>107.343066665995</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>226.8296124285858</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>84.52375608136613</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>82.14201637551348</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>296.4345156819646</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.0627410213884</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>116.2712455521796</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>268.6046170634265</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.103498454163</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,10 +1300,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>170.6620894478693</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>265.9828598228314</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>402.1444680669201</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>30.98751491776937</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>49.84534453311134</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>175.8847260613643</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>24.62703520776627</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>102.6974459740354</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>132.0238630998844</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>116.7517518151319</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>66.96958968939306</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>132.4364845790155</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>185.4229681497287</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>79.58540461744393</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>20.56754178381374</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>35.20092700998637</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>266.8594808797419</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.139541480023122</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999605</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083127</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972017</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147861</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311177</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790317</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760551</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629788</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063842</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832449</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.211829451699</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215091</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903943</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316719</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177631</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443324</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>104.007661408985</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348851</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772311</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593275</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894732</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398234</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989346</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999606</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083128</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147862</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790323</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629789</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.514659383245</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516991</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903944</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.371820631672</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177632</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442599</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297328</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934382</v>
+        <v>9.515040001583706</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772312</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593276</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894733</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398235</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999606</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083128</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131896</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147862</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>71.12675199790318</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755936</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854136</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629789</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.514659383245</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516991</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215092</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903944</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.371820631672</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177632</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443325</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>18.40787475442571</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>76.08474665297328</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>9.515040001583706</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348852</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772312</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593276</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681757</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894733</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398235</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989347</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628.8817772575625</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C2" t="n">
-        <v>594.7797084813899</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X2" t="n">
-        <v>655.3866633620088</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y2" t="n">
-        <v>651.1409437020662</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>885.9154747824084</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>885.9154747824084</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>720.0374819839311</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>550.2794782346684</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>373.5724241964247</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>207.9811492222523</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>885.9154747824084</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>885.9154747824084</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>885.9154747824084</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>448.5358106104095</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>414.4337418342369</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>382.5643610490854</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>352.8300202477847</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>580.1928443723891</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>807.508379929692</v>
+        <v>815.8501487926407</v>
       </c>
       <c r="C7" t="n">
-        <v>634.9466684129169</v>
+        <v>643.2884372758656</v>
       </c>
       <c r="D7" t="n">
-        <v>469.0686756144395</v>
+        <v>477.4104444773883</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>999.3269986486791</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>999.3269986486791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>999.3269986486791</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>999.3269986486791</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>999.3269986486791</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.0316150883467</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>418.9295463121741</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>387.0601655270227</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>357.3258247257219</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>333.4987991753337</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>333.4987991753337</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461854994</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714678</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1028.685309226023</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1028.685309226023</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1028.685309226023</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1028.685309226023</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1028.685309226023</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215846</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.27816617444</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927497</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2134.780357111334</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1914.713129984373</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.713129984373</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1914.713129984373</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1509.857675395406</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1090.715211974717</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>682.42908827437</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.083928446485</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930383</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.873224919992</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361536</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233747</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900755</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452199</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997753</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>944.0526198997753</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>944.0526198997753</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>944.0526198997753</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>957.8355302562591</v>
+        <v>1128.138272039508</v>
       </c>
       <c r="C10" t="n">
-        <v>785.273818739484</v>
+        <v>955.5765605227328</v>
       </c>
       <c r="D10" t="n">
-        <v>619.3958259410067</v>
+        <v>789.6985677242556</v>
       </c>
       <c r="E10" t="n">
-        <v>449.6378221917439</v>
+        <v>619.9405639749928</v>
       </c>
       <c r="F10" t="n">
-        <v>272.9307681535001</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535001</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438746</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854994</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>130.9483297832398</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>130.9483297832398</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.1582115512009</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.642078732114</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1450.900881889758</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1702.732562092823</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2050.239456063165</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927497</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632869</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2037.773040930866</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.893594509321</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.460593762426</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1226.505085632856</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>957.8355302562591</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>957.8355302562591</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.8355302562591</v>
+        <v>1319.956890758495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518.050233702664</v>
+        <v>2080.980534456772</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.907760886088</v>
+        <v>2080.980534456772</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.997976060532</v>
+        <v>1645.070749631217</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.223231218827</v>
+        <v>1211.296004789512</v>
       </c>
       <c r="F11" t="n">
-        <v>782.3558016280349</v>
+        <v>783.4285751987196</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>382.0307438219834</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451413</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745719</v>
+        <v>380.6308776866508</v>
       </c>
       <c r="K11" t="n">
-        <v>1361.01600573275</v>
+        <v>1214.981169644829</v>
       </c>
       <c r="L11" t="n">
-        <v>1361.01600573275</v>
+        <v>2290.041135897688</v>
       </c>
       <c r="M11" t="n">
-        <v>1361.01600573275</v>
+        <v>2290.041135897688</v>
       </c>
       <c r="N11" t="n">
-        <v>2046.408923967354</v>
+        <v>2290.041135897688</v>
       </c>
       <c r="O11" t="n">
-        <v>3026.58859053766</v>
+        <v>3270.220802467994</v>
       </c>
       <c r="P11" t="n">
-        <v>3854.898465371056</v>
+        <v>4098.530677301391</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.39725132965</v>
+        <v>4645.029463259985</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082707</v>
+        <v>4645.029463259985</v>
       </c>
       <c r="S11" t="n">
-        <v>4570.551316082707</v>
+        <v>4561.377589443822</v>
       </c>
       <c r="T11" t="n">
-        <v>4539.250795963748</v>
+        <v>4341.310362316861</v>
       </c>
       <c r="U11" t="n">
-        <v>4539.250795963748</v>
+        <v>4082.088059633877</v>
       </c>
       <c r="V11" t="n">
-        <v>4176.633845897574</v>
+        <v>3719.471109567704</v>
       </c>
       <c r="W11" t="n">
-        <v>3771.778391308608</v>
+        <v>3314.615654978737</v>
       </c>
       <c r="X11" t="n">
-        <v>3352.635927887919</v>
+        <v>2895.473191558048</v>
       </c>
       <c r="Y11" t="n">
-        <v>2944.349804187572</v>
+        <v>2487.187067857702</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>599.0723342564925</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>397.525584239688</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>303.4051695666417</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>134.6362414489872</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>118.9642624256573</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>846.8620145570349</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>720.3762353362556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985853</v>
+        <v>943.3966263421311</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818102</v>
+        <v>770.834914825356</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833329</v>
+        <v>604.9569220268788</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340702</v>
+        <v>435.198918277616</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958264</v>
+        <v>258.4918642393723</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519987</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165413</v>
+        <v>92.90058926519971</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>454.2387290010251</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>872.4486107689862</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.831467181769</v>
+        <v>2691.321030125315</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760224</v>
+        <v>2445.44158370377</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.519020013329</v>
+        <v>2167.008582956876</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1880.053074827306</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470051</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117572</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.744370297625</v>
+        <v>2522.504847401169</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.601897481048</v>
+        <v>2084.362374584592</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.452589759037</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.917367813788</v>
+        <v>1214.677844917332</v>
       </c>
       <c r="F14" t="n">
-        <v>787.0499382229955</v>
+        <v>786.8104153265394</v>
       </c>
       <c r="G14" t="n">
-        <v>385.6521068462596</v>
+        <v>385.4125839498029</v>
       </c>
       <c r="H14" t="n">
-        <v>96.52195228947589</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I14" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>1365.710142327712</v>
+        <v>2289.979077535589</v>
       </c>
       <c r="M14" t="n">
-        <v>1365.710142327712</v>
+        <v>2289.979077535589</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.115753715441</v>
+        <v>2289.979077535589</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285748</v>
+        <v>3270.158744105895</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119144</v>
+        <v>4098.468618939291</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077739</v>
+        <v>4644.967404897886</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014632</v>
+        <v>4763.772636789214</v>
       </c>
       <c r="T14" t="n">
-        <v>4721.606272014632</v>
+        <v>4543.705409662252</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.944932558708</v>
+        <v>4543.705409662252</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.327982492535</v>
+        <v>4181.088459596079</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.472527903568</v>
+        <v>3776.233005007112</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.330064482879</v>
+        <v>3357.090541586423</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.043940782532</v>
+        <v>2948.804417886076</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.5990003342276</v>
+        <v>1175.3405900049</v>
       </c>
       <c r="C16" t="n">
-        <v>633.0372888174526</v>
+        <v>1002.778878488125</v>
       </c>
       <c r="D16" t="n">
-        <v>608.1614956782948</v>
+        <v>836.900885689648</v>
       </c>
       <c r="E16" t="n">
-        <v>438.403491929032</v>
+        <v>667.1428819403852</v>
       </c>
       <c r="F16" t="n">
-        <v>261.6964378907882</v>
+        <v>490.4358279021415</v>
       </c>
       <c r="G16" t="n">
-        <v>96.1051629166159</v>
+        <v>324.8445529279691</v>
       </c>
       <c r="H16" t="n">
-        <v>96.1051629166159</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I16" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.523404117412</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.643957695867</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.210956948972</v>
+        <v>2275.26766984692</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.255448819403</v>
+        <v>1988.31216171735</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.229044405694</v>
+        <v>1716.285757303642</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.837289739107</v>
+        <v>1470.894002637054</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.4176190532148</v>
+        <v>1367.159208723888</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.327580924766</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.185108108188</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.275323282633</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.500578440928</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>786.6331488501357</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733996</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H17" t="n">
-        <v>96.1051629166159</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I17" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J17" t="n">
-        <v>96.1051629166159</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K17" t="n">
-        <v>467.2396943606312</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>1542.29966061349</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M17" t="n">
-        <v>2699.347495824041</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N17" t="n">
-        <v>3825.078479260488</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O17" t="n">
-        <v>4805.258145830795</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P17" t="n">
-        <v>4805.258145830795</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830795</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S17" t="n">
-        <v>4721.606272014632</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T17" t="n">
-        <v>4501.539044887671</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U17" t="n">
-        <v>4242.316742204687</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V17" t="n">
-        <v>3879.699792138514</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W17" t="n">
-        <v>3474.844337549547</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.91327511002</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.627151409673</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>946.6011999935471</v>
+        <v>1175.3405900049</v>
       </c>
       <c r="C19" t="n">
-        <v>774.039488476772</v>
+        <v>1002.778878488125</v>
       </c>
       <c r="D19" t="n">
-        <v>608.1614956782948</v>
+        <v>836.900885689648</v>
       </c>
       <c r="E19" t="n">
-        <v>438.403491929032</v>
+        <v>667.1428819403852</v>
       </c>
       <c r="F19" t="n">
-        <v>261.6964378907882</v>
+        <v>490.4358279021415</v>
       </c>
       <c r="G19" t="n">
-        <v>96.1051629166159</v>
+        <v>324.844552927969</v>
       </c>
       <c r="H19" t="n">
-        <v>96.1051629166159</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I19" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2694.525603776731</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2448.646157355186</v>
+        <v>2307.821224172271</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.213156608291</v>
+        <v>2029.388223425376</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.257648478722</v>
+        <v>1742.432715295807</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.231244065013</v>
+        <v>1470.406310882098</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.839489398426</v>
+        <v>1402.760260690792</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.419818712534</v>
+        <v>1175.3405900049</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.327580924765</v>
+        <v>2522.504847401168</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.185108108188</v>
+        <v>2084.362374584591</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.275323282633</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.500578440928</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F20" t="n">
-        <v>786.6331488501355</v>
+        <v>786.8104153265388</v>
       </c>
       <c r="G20" t="n">
-        <v>385.2353174733996</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H20" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I20" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>2530.193431070985</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N20" t="n">
-        <v>3655.924414507432</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O20" t="n">
-        <v>4636.104081077739</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P20" t="n">
-        <v>4636.104081077739</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4636.104081077739</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S20" t="n">
-        <v>4805.258145830795</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T20" t="n">
-        <v>4585.190918703834</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U20" t="n">
-        <v>4325.96861602085</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V20" t="n">
-        <v>3963.351665954677</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.055738530708</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X20" t="n">
-        <v>3356.913275110019</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y20" t="n">
-        <v>2948.627151409672</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>946.6011999935471</v>
+        <v>784.3584455160029</v>
       </c>
       <c r="C22" t="n">
-        <v>774.039488476772</v>
+        <v>611.7967339992279</v>
       </c>
       <c r="D22" t="n">
-        <v>608.1614956782948</v>
+        <v>611.7967339992279</v>
       </c>
       <c r="E22" t="n">
-        <v>438.403491929032</v>
+        <v>442.0387302499651</v>
       </c>
       <c r="F22" t="n">
-        <v>261.6964378907882</v>
+        <v>265.3316762117212</v>
       </c>
       <c r="G22" t="n">
-        <v>96.1051629166159</v>
+        <v>265.3316762117212</v>
       </c>
       <c r="H22" t="n">
-        <v>96.1051629166159</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I22" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S22" t="n">
-        <v>2694.525603776731</v>
+        <v>2532.282849299187</v>
       </c>
       <c r="T22" t="n">
-        <v>2448.646157355186</v>
+        <v>2286.403402877642</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.213156608292</v>
+        <v>2007.970402130747</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.257648478722</v>
+        <v>1721.014894001177</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.231244065013</v>
+        <v>1448.988489587469</v>
       </c>
       <c r="X22" t="n">
-        <v>1365.839489398426</v>
+        <v>1203.596734920882</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.419818712534</v>
+        <v>976.17706423499</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.216302815309</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>863.6545912985335</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
         <v>842.8792965674086</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534296</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937632</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769882</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292482</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910044</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>105.4320942910044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>105.4320942910044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127503</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.995166752589</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206712</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803011</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390332</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961503</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835866</v>
+        <v>765.7936465207264</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197266</v>
+        <v>376.2024849218673</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581899</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3399.987281602977</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4228.297156436373</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4774.795942394968</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148024</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.104803109738</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4663.844245760654</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4416.428612855548</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3265.233754113349</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278743</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>995.399932177967</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>834.6448904390689</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>680.5735674184687</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>522.6222334470829</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>357.721849186716</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>203.9372439904201</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773803</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946387</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506869</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440138</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2808.112346440138</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.677647516012</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872344</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.978539903327</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551634</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.609966915802</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1391.024882027092</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119077</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207266</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218673</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L41" t="n">
-        <v>2177.324623035296</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M41" t="n">
-        <v>3334.372458245846</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N41" t="n">
-        <v>3334.372458245846</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3399.987281602977</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436373</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.795942394968</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148024</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109738</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760653</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855547</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113348</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612131</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>825.0337389223149</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>670.9624159017144</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>513.0110819303286</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>348.1106976699617</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850159</v>
+        <v>194.3260924736662</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882666</v>
+        <v>175.7322795904083</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773802</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946384</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506869</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526508</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440138</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923386</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999259</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355591</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386573</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1875.218550034881</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399049</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510338</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1165.800729602323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218673</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032671</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602977</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436373</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.795942394968</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148024</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109738</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760653</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855548</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113348</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612134</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>825.0337389223153</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>670.9624159017148</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>513.0110819303289</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>348.110697669962</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>194.3260924736666</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904083</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296049</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569475</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773802</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946384</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.21855003488</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602324</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>554.6080577318744</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>478.8828999897194</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318743</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7111812840083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8623,7 +8623,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>254.3754345485502</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>290.6366549711627</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>692.3160790248521</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>933.4259280115905</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>924.6521327148782</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>374.883365094965</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>90.32658837415556</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140015</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,16 +11063,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>818.3363029781635</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>966.1043795919818</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>1061.943066140015</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>19.89210671313862</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>186.8790399379224</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.97001054489002</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.74535359478895</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>290.0127116801743</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>298.1992869713505</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>175.9682474305286</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>289.6000902010431</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>215.3839318933483</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>58.9177479490853</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,19 +24649,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.446659489829533</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>84.63380825304829</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>22.80688807744603</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.08474665297322</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.515040001583642</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.4066747320051</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>108.4066747320054</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>789677.9070317948</v>
+        <v>794666.5078548617</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>789677.9070317948</v>
+        <v>794666.5078548617</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>792350.7023980777</v>
+        <v>794666.5078548617</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727935.5687380324</v>
+        <v>736569.0965601553</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755142.8506250152</v>
+        <v>756170.289621525</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755142.8506250151</v>
+        <v>756170.2896215251</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755142.8506250152</v>
+        <v>756170.2896215249</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803366.6627068262</v>
+        <v>799852.6195746597</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803366.6627068262</v>
+        <v>799852.6195746597</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803366.6627068262</v>
+        <v>799852.6195746597</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160844.1959671225</v>
+        <v>160844.1959671226</v>
       </c>
       <c r="C2" t="n">
-        <v>160844.1959671225</v>
+        <v>160844.1959671224</v>
       </c>
       <c r="D2" t="n">
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>145488.6467860364</v>
+        <v>147214.184503623</v>
       </c>
       <c r="F2" t="n">
-        <v>150926.4228674082</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="G2" t="n">
-        <v>150926.4228674081</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="H2" t="n">
-        <v>150926.4228674082</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="I2" t="n">
         <v>158057.2752412056</v>
@@ -26347,13 +26347,13 @@
         <v>158057.2752412056</v>
       </c>
       <c r="N2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.6679090521</v>
       </c>
       <c r="O2" t="n">
-        <v>160844.1959671226</v>
+        <v>160063.6679090521</v>
       </c>
       <c r="P2" t="n">
-        <v>160844.1959671228</v>
+        <v>160063.6679090521</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.8787517821</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.753051868</v>
+        <v>147420.5464117493</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510018</v>
+        <v>12112.31405579385</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120716</v>
+        <v>19872.3124878128</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379707</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242547</v>
+        <v>123042.521043056</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.5682709979</v>
+        <v>9350.882464078555</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>154281.6601423561</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25482.65588368833</v>
+        <v>25784.88760309012</v>
       </c>
       <c r="F4" t="n">
-        <v>26435.09430218522</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="G4" t="n">
-        <v>26435.09430218523</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="H4" t="n">
-        <v>26435.09430218523</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353607</v>
+        <v>38297.47027415242</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353613</v>
+        <v>38297.47027415236</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353612</v>
+        <v>38297.47027415236</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009795</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445714</v>
+        <v>70604.44784155177</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099074</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099073</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222204.2792902718</v>
+        <v>-267825.3274106999</v>
       </c>
       <c r="C6" t="n">
-        <v>-80012.97863056196</v>
+        <v>-44125.62882665514</v>
       </c>
       <c r="D6" t="n">
-        <v>-101264.1128371136</v>
+        <v>-44125.62882665508</v>
       </c>
       <c r="E6" t="n">
-        <v>-125039.1421539771</v>
+        <v>-96709.28078163062</v>
       </c>
       <c r="F6" t="n">
-        <v>34639.00247349468</v>
+        <v>39292.81282416337</v>
       </c>
       <c r="G6" t="n">
-        <v>51451.40474859482</v>
+        <v>51405.1268799572</v>
       </c>
       <c r="H6" t="n">
-        <v>51451.40474859485</v>
+        <v>51405.1268799572</v>
       </c>
       <c r="I6" t="n">
-        <v>32193.40941400327</v>
+        <v>32759.42105801498</v>
       </c>
       <c r="J6" t="n">
-        <v>-58359.50745977976</v>
+        <v>-122019.6151718783</v>
       </c>
       <c r="K6" t="n">
-        <v>52654.95788521045</v>
+        <v>52631.73354582777</v>
       </c>
       <c r="L6" t="n">
-        <v>19674.11282141335</v>
+        <v>52631.7335458278</v>
       </c>
       <c r="M6" t="n">
-        <v>-93884.41323904427</v>
+        <v>-70410.78749722816</v>
       </c>
       <c r="N6" t="n">
-        <v>29920.33631649884</v>
+        <v>36278.1214893465</v>
       </c>
       <c r="O6" t="n">
-        <v>42908.90458749677</v>
+        <v>45629.00395342519</v>
       </c>
       <c r="P6" t="n">
-        <v>42908.90458749693</v>
+        <v>45629.00395342513</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318743</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>1161.257365814996</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.31220021177</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888023</v>
+        <v>493.7421592071394</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702206</v>
+        <v>42.27300159773929</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704658</v>
+        <v>74.73013597200975</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.31220021177</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888023</v>
+        <v>493.7421592071394</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.31220021177</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888023</v>
+        <v>493.7421592071394</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702206</v>
+        <v>42.27300159773929</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>324.2076203113049</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>188.1214263578966</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.97939648516309</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>160.7958207444082</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>127.1542396129198</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>114.1405214419547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>73.62918697961764</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.044053675999237</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>194.9330763258957</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>154.5594875100821</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.277894049992028</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.323280546740023</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791302636</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009819</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>11.68860308009813</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>554.6080577318744</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>478.8828999897194</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318743</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7111812840083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>254.3754345485502</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>290.6366549711627</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>692.3160790248521</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>933.4259280115905</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>924.6521327148782</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>374.883365094965</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>90.32658837415556</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37543,10 +37543,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140015</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917884</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881397</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313926</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>818.3363029781635</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>966.1043795919818</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917879</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313929</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>1061.943066140015</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917879</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761947</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313919</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
